--- a/data/trans_orig/P1405-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1405-Clase-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>4117</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1050</v>
+        <v>1122</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9775</v>
+        <v>10408</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009416226465042143</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00240133539968534</v>
+        <v>0.002565517664738362</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02235692065777587</v>
+        <v>0.0238059343336231</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -763,19 +763,19 @@
         <v>8537</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3287</v>
+        <v>3149</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18570</v>
+        <v>18681</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0271493933821182</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01045211704927132</v>
+        <v>0.01001519346641234</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05905454259326762</v>
+        <v>0.0594092648846981</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -784,19 +784,19 @@
         <v>12654</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6454</v>
+        <v>6239</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23499</v>
+        <v>22888</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01683478330664256</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008586250000686222</v>
+        <v>0.008300030822994383</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03126248358838794</v>
+        <v>0.0304494966077967</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>433094</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>427436</v>
+        <v>426803</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>436161</v>
+        <v>436089</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9905837735349579</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9776430793422241</v>
+        <v>0.9761940656663768</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9975986646003147</v>
+        <v>0.9974344823352617</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>277</v>
@@ -834,19 +834,19 @@
         <v>305917</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>295884</v>
+        <v>295773</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>311167</v>
+        <v>311305</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9728506066178818</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9409454574067327</v>
+        <v>0.9405907351153019</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9895478829507288</v>
+        <v>0.9899848065335876</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>677</v>
@@ -855,19 +855,19 @@
         <v>739011</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>728166</v>
+        <v>728777</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>745211</v>
+        <v>745426</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9831652166933574</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9687375164116121</v>
+        <v>0.9695505033922033</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9914137499993139</v>
+        <v>0.9916999691770055</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>7057</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2763</v>
+        <v>2953</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18182</v>
+        <v>16433</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01685095607431817</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00659840316964764</v>
+        <v>0.007051576502102526</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0434157897707797</v>
+        <v>0.0392385718502203</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -980,19 +980,19 @@
         <v>5065</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2013</v>
+        <v>1942</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11331</v>
+        <v>11055</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01498350191444688</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005955292036636401</v>
+        <v>0.005743918578885208</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03352322277865092</v>
+        <v>0.03270540198557678</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -1001,19 +1001,19 @@
         <v>12122</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6045</v>
+        <v>5859</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>23131</v>
+        <v>22572</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01601690016437571</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007987267182085438</v>
+        <v>0.007741187513436881</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03056439958262435</v>
+        <v>0.02982517585853092</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>411740</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>400615</v>
+        <v>402364</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>416034</v>
+        <v>415844</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9831490439256818</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9565842102292201</v>
+        <v>0.9607614281497796</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9934015968303521</v>
+        <v>0.9929484234978975</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>300</v>
@@ -1051,19 +1051,19 @@
         <v>332946</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>326680</v>
+        <v>326956</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>335998</v>
+        <v>336069</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9850164980855531</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9664767772213491</v>
+        <v>0.9672945980144229</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9940447079633635</v>
+        <v>0.9942560814211148</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>670</v>
@@ -1072,19 +1072,19 @@
         <v>744686</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>733677</v>
+        <v>734236</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>750763</v>
+        <v>750949</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9839830998356243</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9694356004173759</v>
+        <v>0.9701748241414703</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9920127328179147</v>
+        <v>0.9922588124865631</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>5140</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2032</v>
+        <v>1919</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11318</v>
+        <v>10913</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008167015971015259</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003228261624793925</v>
+        <v>0.003048934589690628</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01798120306592759</v>
+        <v>0.01733771802097894</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>5140</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1939</v>
+        <v>2017</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10835</v>
+        <v>12284</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005778735444223266</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002179926863101258</v>
+        <v>0.002267437616435967</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01218002476297404</v>
+        <v>0.01380922785492256</v>
       </c>
     </row>
     <row r="11">
@@ -1239,19 +1239,19 @@
         <v>624275</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>618097</v>
+        <v>618502</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>627383</v>
+        <v>627496</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9918329840289848</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9820187969340726</v>
+        <v>0.9826622819790213</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9967717383752061</v>
+        <v>0.9969510654103093</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>244</v>
@@ -1273,19 +1273,19 @@
         <v>884404</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>878709</v>
+        <v>877260</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>887605</v>
+        <v>887527</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9942212645557768</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9878199752370257</v>
+        <v>0.9861907721450774</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9978200731368987</v>
+        <v>0.9977325623835641</v>
       </c>
     </row>
     <row r="12">
@@ -1377,19 +1377,19 @@
         <v>7272</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3068</v>
+        <v>3021</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15468</v>
+        <v>16425</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.006274637023013323</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002647394936879797</v>
+        <v>0.002606157016802285</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01334577896906311</v>
+        <v>0.01417120794645718</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -1398,19 +1398,19 @@
         <v>12369</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6267</v>
+        <v>6265</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22121</v>
+        <v>21520</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01617460270644632</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.008195402651513672</v>
+        <v>0.008192263607158995</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02892703406335789</v>
+        <v>0.02814037307485943</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>17</v>
@@ -1419,19 +1419,19 @@
         <v>19641</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11827</v>
+        <v>11858</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>31643</v>
+        <v>31009</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01021007380143654</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006147788509940339</v>
+        <v>0.006164164536203047</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0164485972996611</v>
+        <v>0.01611921291110635</v>
       </c>
     </row>
     <row r="14">
@@ -1448,19 +1448,19 @@
         <v>1151737</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1143541</v>
+        <v>1142584</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1155941</v>
+        <v>1155988</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9937253629769867</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9866542210309369</v>
+        <v>0.9858287920535429</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9973526050631202</v>
+        <v>0.9973938429831978</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>699</v>
@@ -1469,19 +1469,19 @@
         <v>752353</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>742601</v>
+        <v>743202</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>758455</v>
+        <v>758457</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9838253972935537</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9710729659366415</v>
+        <v>0.9718596269251406</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9918045973484857</v>
+        <v>0.991807736392841</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1776</v>
@@ -1490,19 +1490,19 @@
         <v>1904090</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1892088</v>
+        <v>1892722</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1911904</v>
+        <v>1911873</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9897899261985634</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.983551402700339</v>
+        <v>0.9838807870888941</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9938522114900596</v>
+        <v>0.9938358354637971</v>
       </c>
     </row>
     <row r="15">
@@ -1594,19 +1594,19 @@
         <v>4202</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10600</v>
+        <v>9758</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00822900947689063</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002102075234611599</v>
+        <v>0.002110805022344482</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0207592196621133</v>
+        <v>0.0191109171664912</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -1615,19 +1615,19 @@
         <v>11768</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6048</v>
+        <v>6318</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19708</v>
+        <v>20087</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01547968366401433</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007955479413233761</v>
+        <v>0.008309848978333435</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02592327360761781</v>
+        <v>0.02642207676143981</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -1636,19 +1636,19 @@
         <v>15970</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9356</v>
+        <v>9406</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>25344</v>
+        <v>25564</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01256652406202562</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007362181589093749</v>
+        <v>0.007401730667777607</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0199428399537506</v>
+        <v>0.02011588402184464</v>
       </c>
     </row>
     <row r="17">
@@ -1665,19 +1665,19 @@
         <v>506394</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>499996</v>
+        <v>500838</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>509523</v>
+        <v>509518</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9917709905231094</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9792407803378868</v>
+        <v>0.980889082833509</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9978979247653884</v>
+        <v>0.9978891949776555</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>691</v>
@@ -1686,19 +1686,19 @@
         <v>748478</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>740538</v>
+        <v>740159</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>754198</v>
+        <v>753928</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9845203163359857</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9740767263923827</v>
+        <v>0.9735779232385613</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9920445205867664</v>
+        <v>0.9916901510216667</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1174</v>
@@ -1707,19 +1707,19 @@
         <v>1254873</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1245499</v>
+        <v>1245279</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1261487</v>
+        <v>1261437</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9874334759379744</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9800571600462498</v>
+        <v>0.9798841159781556</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9926378184109063</v>
+        <v>0.9925982693322226</v>
       </c>
     </row>
     <row r="18">
@@ -1814,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4559</v>
+        <v>5522</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003659107462079132</v>
@@ -1823,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0170836778601849</v>
+        <v>0.02068978336684756</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>23</v>
@@ -1832,19 +1832,19 @@
         <v>24990</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>15935</v>
+        <v>16589</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>36484</v>
+        <v>37050</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02255103611619812</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01437990625745786</v>
+        <v>0.01496957143867635</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03292279366476095</v>
+        <v>0.03343352869838147</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>24</v>
@@ -1853,19 +1853,19 @@
         <v>25967</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>17095</v>
+        <v>17672</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>37490</v>
+        <v>38889</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01888432375067415</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01243234235754046</v>
+        <v>0.01285177806822071</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0272641728693985</v>
+        <v>0.02828210860179365</v>
       </c>
     </row>
     <row r="20">
@@ -1882,7 +1882,7 @@
         <v>265905</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>262323</v>
+        <v>261360</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>266882</v>
@@ -1891,7 +1891,7 @@
         <v>0.9963408925379209</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9829163221398158</v>
+        <v>0.979310216633153</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1903,19 +1903,19 @@
         <v>1083179</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1071685</v>
+        <v>1071119</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1092234</v>
+        <v>1091580</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9774489638838019</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9670772063352385</v>
+        <v>0.9665664713016185</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9856200937425421</v>
+        <v>0.9850304285613236</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1284</v>
@@ -1924,19 +1924,19 @@
         <v>1349084</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1337561</v>
+        <v>1336162</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1357956</v>
+        <v>1357379</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9811156762493258</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9727358271306015</v>
+        <v>0.9717178913982062</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9875676576424596</v>
+        <v>0.987148221931779</v>
       </c>
     </row>
     <row r="21">
@@ -2028,19 +2028,19 @@
         <v>28765</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>18386</v>
+        <v>19438</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>41112</v>
+        <v>42210</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.008406141185376038</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005372931388175804</v>
+        <v>0.005680361411760264</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01201433103603411</v>
+        <v>0.0123353501370265</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>56</v>
@@ -2049,19 +2049,19 @@
         <v>62730</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>47948</v>
+        <v>47162</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>82545</v>
+        <v>79457</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01769158903760836</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01352268420185614</v>
+        <v>0.01330094625428905</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02328011860022326</v>
+        <v>0.02240932675314787</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>81</v>
@@ -2070,19 +2070,19 @@
         <v>91495</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>71568</v>
+        <v>73132</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>113426</v>
+        <v>112742</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01313137089922865</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01027143688583884</v>
+        <v>0.0104958966282465</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01627896196997413</v>
+        <v>0.01618085809376873</v>
       </c>
     </row>
     <row r="23">
@@ -2099,19 +2099,19 @@
         <v>3393145</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3380798</v>
+        <v>3379700</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3403524</v>
+        <v>3402472</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9915938588146239</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9879856689639659</v>
+        <v>0.9876646498629736</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9946270686118241</v>
+        <v>0.9943196385882398</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3231</v>
@@ -2120,19 +2120,19 @@
         <v>3483002</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3463187</v>
+        <v>3466275</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3497784</v>
+        <v>3498570</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9823084109623916</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9767198813997765</v>
+        <v>0.977590673246852</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9864773157981437</v>
+        <v>0.9866990537457109</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6411</v>
@@ -2141,19 +2141,19 @@
         <v>6876147</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6854216</v>
+        <v>6854900</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6896074</v>
+        <v>6894510</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9868686291007713</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9837210380300254</v>
+        <v>0.9838191419062311</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9897285631141611</v>
+        <v>0.9895041033717533</v>
       </c>
     </row>
     <row r="24">
@@ -2487,19 +2487,19 @@
         <v>8845</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3844</v>
+        <v>3755</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17220</v>
+        <v>17552</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02061393124916439</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008957800126691713</v>
+        <v>0.008750850711221279</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04013010605708046</v>
+        <v>0.04090484445780037</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7724</v>
+        <v>7147</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.006316895501653559</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02225471695249978</v>
+        <v>0.02059227326553757</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -2529,19 +2529,19 @@
         <v>11038</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5066</v>
+        <v>5041</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20104</v>
+        <v>21490</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0142209967460066</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006526712323850136</v>
+        <v>0.006495502407622764</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02590197087113895</v>
+        <v>0.02768848760908227</v>
       </c>
     </row>
     <row r="5">
@@ -2558,19 +2558,19 @@
         <v>420247</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>411872</v>
+        <v>411540</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>425248</v>
+        <v>425337</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9793860687508356</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9598698939429198</v>
+        <v>0.9590951555421995</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9910421998733083</v>
+        <v>0.9912491492887787</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>330</v>
@@ -2579,7 +2579,7 @@
         <v>344863</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>339331</v>
+        <v>339908</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>347055</v>
@@ -2588,7 +2588,7 @@
         <v>0.9936831044983464</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9777452830475002</v>
+        <v>0.9794077267344634</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2600,19 +2600,19 @@
         <v>765109</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>756043</v>
+        <v>754657</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>771081</v>
+        <v>771106</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9857790032539934</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9740980291288611</v>
+        <v>0.9723115123909178</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9934732876761498</v>
+        <v>0.9935044975923772</v>
       </c>
     </row>
     <row r="6">
@@ -2707,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7149</v>
+        <v>7869</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005949570819910547</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01895255899966407</v>
+        <v>0.02086127814977575</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -2725,19 +2725,19 @@
         <v>7303</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2955</v>
+        <v>2968</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15902</v>
+        <v>15746</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01961819955408941</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.007937425223096749</v>
+        <v>0.007972199286260334</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04271653367091147</v>
+        <v>0.0422969131930556</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -2746,19 +2746,19 @@
         <v>9548</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4415</v>
+        <v>4352</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>18602</v>
+        <v>19639</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01273871465638226</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005890517457716037</v>
+        <v>0.005806480757096045</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02481927386568918</v>
+        <v>0.0262032496115392</v>
       </c>
     </row>
     <row r="8">
@@ -2775,7 +2775,7 @@
         <v>374983</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>370078</v>
+        <v>369358</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>377227</v>
@@ -2784,7 +2784,7 @@
         <v>0.9940504291800895</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9810474410003361</v>
+        <v>0.9791387218502238</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -2796,19 +2796,19 @@
         <v>364970</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>356371</v>
+        <v>356527</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>369318</v>
+        <v>369305</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9803818004459106</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9572834663290889</v>
+        <v>0.957703086806945</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9920625747769033</v>
+        <v>0.9920278007137396</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>698</v>
@@ -2817,19 +2817,19 @@
         <v>739952</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>730898</v>
+        <v>729861</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>745085</v>
+        <v>745148</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9872612853436178</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9751807261343105</v>
+        <v>0.9737967503884586</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9941094825422837</v>
+        <v>0.9941935192429038</v>
       </c>
     </row>
     <row r="9">
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7996</v>
+        <v>9116</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004899598073286036</v>
@@ -2933,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01532117871355385</v>
+        <v>0.01746669160969451</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -2942,19 +2942,19 @@
         <v>3076</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>0</v>
+        <v>919</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8241</v>
+        <v>8766</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01851395118430077</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0</v>
+        <v>0.005534181446069616</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04961067125377816</v>
+        <v>0.05276592176092592</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -2963,19 +2963,19 @@
         <v>5633</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1991</v>
+        <v>2037</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12273</v>
+        <v>11947</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008186712248358222</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002893589815450853</v>
+        <v>0.002960466024602612</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01783722234556118</v>
+        <v>0.01736428842921701</v>
       </c>
     </row>
     <row r="11">
@@ -2992,7 +2992,7 @@
         <v>519357</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>513918</v>
+        <v>512798</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>521914</v>
@@ -3001,7 +3001,7 @@
         <v>0.995100401926714</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.984678821286446</v>
+        <v>0.9825333083903054</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -3013,19 +3013,19 @@
         <v>163047</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>157882</v>
+        <v>157357</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>166123</v>
+        <v>165204</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9814860488156992</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9503893287462218</v>
+        <v>0.947234078239074</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>1</v>
+        <v>0.9944658185539303</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>650</v>
@@ -3034,19 +3034,19 @@
         <v>682403</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>675763</v>
+        <v>676089</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>686045</v>
+        <v>685999</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9918132877516418</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9821627776544386</v>
+        <v>0.9826357115707826</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9971064101845492</v>
+        <v>0.9970395339753974</v>
       </c>
     </row>
     <row r="12">
@@ -3138,19 +3138,19 @@
         <v>5898</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2044</v>
+        <v>2029</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13074</v>
+        <v>11845</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.005130119737208277</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001777991072152629</v>
+        <v>0.001765280700926048</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01137265476450623</v>
+        <v>0.01030304892763689</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -3159,19 +3159,19 @@
         <v>11290</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5946</v>
+        <v>5761</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19431</v>
+        <v>18857</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01367088559469692</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007199642162172035</v>
+        <v>0.006975944636658045</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02352790600915945</v>
+        <v>0.02283322064019653</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>17</v>
@@ -3180,19 +3180,19 @@
         <v>17188</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9945</v>
+        <v>10257</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>27191</v>
+        <v>27550</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.008700639366630359</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00503437341130892</v>
+        <v>0.005192318457432643</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01376399773521012</v>
+        <v>0.01394575591730775</v>
       </c>
     </row>
     <row r="14">
@@ -3209,19 +3209,19 @@
         <v>1143740</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1136564</v>
+        <v>1137793</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1147594</v>
+        <v>1147609</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9948698802627918</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9886273452354939</v>
+        <v>0.9896969510723632</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9982220089278474</v>
+        <v>0.998234719299074</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>787</v>
@@ -3230,19 +3230,19 @@
         <v>814586</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>806445</v>
+        <v>807019</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>819930</v>
+        <v>820115</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9863291144053031</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9764720939908408</v>
+        <v>0.9771667793598036</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9928003578378281</v>
+        <v>0.9930240553633419</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1884</v>
@@ -3251,19 +3251,19 @@
         <v>1958326</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1948323</v>
+        <v>1947964</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1965569</v>
+        <v>1965257</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9912993606333697</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9862360022647899</v>
+        <v>0.9860542440826923</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.994965626588691</v>
+        <v>0.9948076815425674</v>
       </c>
     </row>
     <row r="15">
@@ -3355,19 +3355,19 @@
         <v>4765</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1139</v>
+        <v>1983</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11734</v>
+        <v>13900</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007676110319575069</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001835245906573975</v>
+        <v>0.00319512672218955</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01890362026207427</v>
+        <v>0.02239344248017337</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -3376,19 +3376,19 @@
         <v>11251</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6006</v>
+        <v>6079</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20166</v>
+        <v>20026</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01523972437756989</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008135328474301495</v>
+        <v>0.008233983036392199</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02731594690918631</v>
+        <v>0.02712648979026492</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -3397,19 +3397,19 @@
         <v>16015</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9288</v>
+        <v>9183</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>26586</v>
+        <v>26275</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0117850132477617</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006834604312442468</v>
+        <v>0.006757643989085195</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01956377502998916</v>
+        <v>0.01933499898685977</v>
       </c>
     </row>
     <row r="17">
@@ -3426,19 +3426,19 @@
         <v>615941</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>608972</v>
+        <v>606806</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>619567</v>
+        <v>618723</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.992323889680425</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9810963797379257</v>
+        <v>0.9776065575198266</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.998164754093426</v>
+        <v>0.9968048732778104</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>688</v>
@@ -3447,19 +3447,19 @@
         <v>726993</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>718078</v>
+        <v>718218</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>732238</v>
+        <v>732165</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9847602756224301</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9726840530908136</v>
+        <v>0.9728735102097349</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9918646715256986</v>
+        <v>0.9917660169636077</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1281</v>
@@ -3468,19 +3468,19 @@
         <v>1342935</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1332364</v>
+        <v>1332675</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1349662</v>
+        <v>1349767</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9882149867522383</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9804362249700106</v>
+        <v>0.98066500101314</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9931653956875575</v>
+        <v>0.9932423560109148</v>
       </c>
     </row>
     <row r="18">
@@ -3575,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6599</v>
+        <v>5474</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003812336285019089</v>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0229816233423174</v>
+        <v>0.01906318300146419</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -3593,19 +3593,19 @@
         <v>20620</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12650</v>
+        <v>12719</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>32060</v>
+        <v>32660</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01905683497808825</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01169109612976812</v>
+        <v>0.01175443431867703</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.029629721337237</v>
+        <v>0.03018441355440917</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>19</v>
@@ -3614,19 +3614,19 @@
         <v>21715</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>13172</v>
+        <v>13565</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>32188</v>
+        <v>34208</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01585972736830392</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.009620257388531726</v>
+        <v>0.00990725972087619</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02350931684673296</v>
+        <v>0.02498411849721098</v>
       </c>
     </row>
     <row r="20">
@@ -3643,7 +3643,7 @@
         <v>286050</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>280546</v>
+        <v>281671</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>287145</v>
@@ -3652,7 +3652,7 @@
         <v>0.9961876637149809</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9770183766576825</v>
+        <v>0.9809368169985357</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -3664,19 +3664,19 @@
         <v>1061405</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1049965</v>
+        <v>1049365</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1069375</v>
+        <v>1069306</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9809431650219117</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.970370278662763</v>
+        <v>0.9698155864455908</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9883089038702318</v>
+        <v>0.9882455656813229</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1245</v>
@@ -3685,19 +3685,19 @@
         <v>1347455</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1336982</v>
+        <v>1334962</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1355998</v>
+        <v>1355605</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9841402726316961</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9764906831532669</v>
+        <v>0.9750158815027892</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9903797426114682</v>
+        <v>0.9900927402791239</v>
       </c>
     </row>
     <row r="21">
@@ -3789,19 +3789,19 @@
         <v>25404</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16711</v>
+        <v>15500</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>38359</v>
+        <v>37406</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.007503233811162053</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004935595592828159</v>
+        <v>0.004578001915060886</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01132975440044194</v>
+        <v>0.01104802208095366</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>51</v>
@@ -3810,19 +3810,19 @@
         <v>55732</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>41734</v>
+        <v>39702</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>73934</v>
+        <v>71110</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01578104980146069</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01181724288724785</v>
+        <v>0.01124187557486682</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02093508742533966</v>
+        <v>0.02013538437219256</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>73</v>
@@ -3831,19 +3831,19 @@
         <v>81136</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>64454</v>
+        <v>63820</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>104534</v>
+        <v>99649</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01172942387361103</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00931776788672479</v>
+        <v>0.009226164109631566</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01511198958990161</v>
+        <v>0.01440571861135418</v>
       </c>
     </row>
     <row r="23">
@@ -3860,19 +3860,19 @@
         <v>3360318</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3347363</v>
+        <v>3348316</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3369011</v>
+        <v>3370222</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.992496766188838</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9886702455995577</v>
+        <v>0.9889519779190464</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9950644044071718</v>
+        <v>0.9954219980849391</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3275</v>
@@ -3881,19 +3881,19 @@
         <v>3475864</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3457662</v>
+        <v>3460486</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3489862</v>
+        <v>3491894</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9842189501985393</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9790649125746604</v>
+        <v>0.9798646156278076</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9881827571127525</v>
+        <v>0.9887581244251333</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6477</v>
@@ -3902,19 +3902,19 @@
         <v>6836182</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6812784</v>
+        <v>6817669</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6852864</v>
+        <v>6853498</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.988270576126389</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9848880104100982</v>
+        <v>0.9855942813886456</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9906822321132752</v>
+        <v>0.9907738358903685</v>
       </c>
     </row>
     <row r="24">
